--- a/excel/test_decimal.xlsx
+++ b/excel/test_decimal.xlsx
@@ -27,7 +27,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -38,6 +38,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -71,19 +77,19 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -515,31 +521,31 @@
       <c r="A22" s="1"/>
       <c r="B22" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="14.25">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
       <c r="A23" s="1"/>
       <c r="B23" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="14.25">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
       <c r="A24" s="1"/>
       <c r="B24" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="14.25">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
       <c r="A25" s="1"/>
       <c r="B25" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="14.25">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
       <c r="A26" s="1"/>
       <c r="B26" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="14.25">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
       <c r="A27" s="1"/>
       <c r="B27" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="14.25">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
       <c r="A28" s="1"/>
       <c r="B28" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="14.25">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
       <c r="A29" s="1"/>
       <c r="B29" s="4"/>
     </row>
